--- a/Планирование БД.xlsx
+++ b/Планирование БД.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/react/realan-soft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2678030-CEB4-5F40-B74A-F9E85C6EFFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE735500-52B8-9743-AEE5-50FBBB28DFDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1320" windowWidth="27440" windowHeight="14900" activeTab="1" xr2:uid="{DE517ECF-B98D-864E-9B28-25B317999A06}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
-    <sheet name="новые мысли" sheetId="2" r:id="rId2"/>
+    <sheet name="Роли" sheetId="3" r:id="rId2"/>
+    <sheet name="новые мысли" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>ID заказа</t>
   </si>
@@ -337,7 +332,34 @@
     <t xml:space="preserve">Т.е. у вас ограничено место на полке? </t>
   </si>
   <si>
-    <t>как из приложения для подтягивания адресов запихивать их в БД?</t>
+    <t>user</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>просмотр ИМ. После регистрации - customer</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>storekeeper</t>
+  </si>
+  <si>
+    <t>размещение заказа, своя стата, текущие заказы состояние, документы …</t>
+  </si>
+  <si>
+    <t>набор заказов, генерация отгрузочных доков</t>
   </si>
 </sst>
 </file>
@@ -1215,21 +1237,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C507A5-56D1-8549-8AAB-8EC1CD219CAF}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C127F91-03AB-8A4C-91B3-844D9194678E}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C507A5-56D1-8549-8AAB-8EC1CD219CAF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>